--- a/psychopy/experiments/emotion-regulation/loopEmotionRegulationIntro.xlsx
+++ b/psychopy/experiments/emotion-regulation/loopEmotionRegulationIntro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\neuroflare-experiments\psychopy\experiments\emotion-regulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C44C0-8CB7-4306-A96A-10920F86A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532A892B-CEC3-4ADA-9CD8-20BED9A137FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="3480" windowWidth="21780" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="45" windowWidth="21780" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>You will see photograph series of pictures that represent a lot of different events that occur in life.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pictures show unpleasant events. We will do a practice trial before the actual trial. You can let the experimenter know if you want to stop anytime during this trial. </t>
+    <t>Pictures show unpleasant events. We will do a neutral and practice trial before the actual trial. Please let the experimenter know if you want to stop.</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -546,12 +546,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,15 +666,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -699,16 +706,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>